--- a/Expedia Templates/BMC/BMC2/IMPORT remove old Packages.xlsx
+++ b/Expedia Templates/BMC/BMC2/IMPORT remove old Packages.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elias\Dev\core_ota\Expedia Templates\BMC\BMC2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elias\Dev\workspace\Expedia Templates\BMC\BMC2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{484DFCB6-E2BF-427B-AA81-87124D9F5671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D08104D-D66C-499E-986B-48216FB15FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2175" yWindow="2610" windowWidth="22830" windowHeight="13830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2040" yWindow="3900" windowWidth="22830" windowHeight="13830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Success" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Hotel ID</t>
   </si>
@@ -53,9 +53,6 @@
   </si>
   <si>
     <t>Inactive</t>
-  </si>
-  <si>
-    <t>Hotel Collect Rate Plan Code</t>
   </si>
 </sst>
 </file>
@@ -424,11 +421,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
+      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -438,10 +435,9 @@
     <col min="4" max="6" width="16.42578125" customWidth="1"/>
     <col min="7" max="7" width="18.7109375" customWidth="1"/>
     <col min="8" max="8" width="35.140625" customWidth="1"/>
-    <col min="9" max="9" width="26.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -466,11 +462,8 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>123</v>
       </c>
@@ -481,9 +474,6 @@
         <v>9</v>
       </c>
       <c r="H2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" t="s">
         <v>8</v>
       </c>
     </row>
